--- a/bases/UPDATE/SCN/Cuentas por sectores institucionales.xlsx
+++ b/bases/UPDATE/SCN/Cuentas por sectores institucionales.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Cuentas por sectores institucio" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cuentas_por_sectores_institucionales" localSheetId="0">'Cuentas por sectores institucio'!$A$1:$CU$29</definedName>
+    <definedName name="Cuentas_por_sectores_institucionales" localSheetId="0">'Cuentas por sectores institucio'!$A$1:$CU$30</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas por sectores institucionales.IQY" name="Cuentas por sectores institucionales" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\Cuentas por sectores institucionales.IQY" name="Cuentas por sectores institucionales" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,510003,510004,510005,510006,510007,510008,510009,510010,510011,510012,510013,510014,510015,510016,510017,510018,510019,510020,510021,510022,510023,510024,510025,510026,510027,510028,510029,510030,510031,510032,510033,510034,510035,510036,510037,510038,510039,510040,510043,510044,510045,510046,510047,510048,510049,510050,510051,510052,510053,510054,510055,510056,510057,510058,510059,510060,510061,510062,510063,510064,510065,510066,510067,510068,510069,510070,510071,510072,510073,510074,510075,510076,510077,510078,510079,510080,510081,510082,510083,510084,510085,510086,510087,510088,510089,510090,510091,510093,510094,510095,510096,510097,510098,510099,510100,510101,510102,510103,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -126,7 +126,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -156,7 +156,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -175,7 +175,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:53:18</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:30</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CU29"/>
+  <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6819,10 +6819,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="4">
-        <v>40894326.824000001</v>
+        <v>40881601.890000001</v>
       </c>
       <c r="C21" s="4">
-        <v>25448364.473999999</v>
+        <v>25440476.089000002</v>
       </c>
       <c r="D21" s="4">
         <v>1567709.8089999999</v>
@@ -6831,16 +6831,16 @@
         <v>2801005.7110000001</v>
       </c>
       <c r="F21" s="4">
-        <v>10748080.771</v>
+        <v>10743244.221999999</v>
       </c>
       <c r="G21" s="4">
         <v>329166.05900000001</v>
       </c>
       <c r="H21" s="4">
-        <v>24453296.226</v>
+        <v>24445735.083999999</v>
       </c>
       <c r="I21" s="4">
-        <v>11565194.141000001</v>
+        <v>11561834.77</v>
       </c>
       <c r="J21" s="4">
         <v>1027562.395</v>
@@ -6849,7 +6849,7 @@
         <v>2033703.595</v>
       </c>
       <c r="L21" s="4">
-        <v>8150524.2709999997</v>
+        <v>8146322.5</v>
       </c>
       <c r="M21" s="4">
         <v>246609.652</v>
@@ -6858,10 +6858,10 @@
         <v>1429702.172</v>
       </c>
       <c r="O21" s="4">
-        <v>6493990.2649999997</v>
+        <v>6493212.0389999999</v>
       </c>
       <c r="P21" s="4">
-        <v>2903214.36</v>
+        <v>2906842.7289999998</v>
       </c>
       <c r="Q21" s="4">
         <v>220150.587</v>
@@ -6870,19 +6870,19 @@
         <v>2002222.527</v>
       </c>
       <c r="S21" s="4">
-        <v>1256181.595</v>
+        <v>1251775</v>
       </c>
       <c r="T21" s="4">
         <v>112221.196</v>
       </c>
       <c r="U21" s="4">
-        <v>11276959.713</v>
+        <v>11269971.972999999</v>
       </c>
       <c r="V21" s="4">
-        <v>8565354.1370000001</v>
+        <v>8558367.1260000002</v>
       </c>
       <c r="W21" s="4">
-        <v>786558.55900000001</v>
+        <v>786557.83</v>
       </c>
       <c r="X21" s="4">
         <v>7181.1440000000002</v>
@@ -6894,13 +6894,13 @@
         <v>134091.008</v>
       </c>
       <c r="AA21" s="4">
-        <v>7329730.9400000004</v>
+        <v>7322602.7549999999</v>
       </c>
       <c r="AB21" s="4">
-        <v>5431297.1749999998</v>
+        <v>5424171.0870000003</v>
       </c>
       <c r="AC21" s="4">
-        <v>743183.52099999995</v>
+        <v>743181.88899999997</v>
       </c>
       <c r="AD21" s="4">
         <v>0</v>
@@ -6909,49 +6909,49 @@
         <v>1069297.196</v>
       </c>
       <c r="AF21" s="4">
-        <v>85953.047999999995</v>
+        <v>85952.582999999999</v>
       </c>
       <c r="AG21" s="4">
-        <v>20376259.346000001</v>
+        <v>20153158.094000001</v>
       </c>
       <c r="AH21" s="4">
-        <v>-1147753.291</v>
+        <v>-1368593.531</v>
       </c>
       <c r="AI21" s="4">
-        <v>1676246.5859999999</v>
+        <v>1676244.9539999999</v>
       </c>
       <c r="AJ21" s="4">
         <v>1880855.9779999999</v>
       </c>
       <c r="AK21" s="4">
-        <v>17528064.015000001</v>
+        <v>17525805.100000001</v>
       </c>
       <c r="AL21" s="4">
-        <v>438846.05800000002</v>
+        <v>438845.59299999999</v>
       </c>
       <c r="AM21" s="4">
-        <v>6001910.2709999997</v>
+        <v>5778614.7699999996</v>
       </c>
       <c r="AN21" s="4">
-        <v>1986303.6710000001</v>
+        <v>1765602.5079999999</v>
       </c>
       <c r="AO21" s="4">
-        <v>891935.728</v>
+        <v>891934.99899999995</v>
       </c>
       <c r="AP21" s="4">
         <v>-897175.04299999995</v>
       </c>
       <c r="AQ21" s="4">
-        <v>3835914.5359999998</v>
+        <v>3833320.9270000001</v>
       </c>
       <c r="AR21" s="4">
         <v>184931.37899999999</v>
       </c>
       <c r="AS21" s="4">
-        <v>5036298.9000000004</v>
+        <v>5036345.199</v>
       </c>
       <c r="AT21" s="4">
-        <v>3051282.625</v>
+        <v>3053189.5559999999</v>
       </c>
       <c r="AU21" s="4">
         <v>61299.47</v>
@@ -6960,7 +6960,7 @@
         <v>351713.10100000002</v>
       </c>
       <c r="AW21" s="4">
-        <v>1564524.1980000001</v>
+        <v>1562663.5660000001</v>
       </c>
       <c r="AX21" s="4">
         <v>7479.5060000000003</v>
@@ -6969,219 +6969,219 @@
         <v>100</v>
       </c>
       <c r="AZ21" s="4">
-        <v>62.229571802279999</v>
+        <v>62.229645886804001</v>
       </c>
       <c r="BA21" s="4">
-        <v>3.833563065476</v>
+        <v>3.8347563121869999</v>
       </c>
       <c r="BB21" s="4">
-        <v>6.8493747874980002</v>
+        <v>6.8515067451040004</v>
       </c>
       <c r="BC21" s="4">
-        <v>26.282571705502001</v>
+        <v>26.278921875192001</v>
       </c>
       <c r="BD21" s="4">
-        <v>0.80491863924499996</v>
+        <v>0.80516918071300003</v>
       </c>
       <c r="BE21" s="4">
         <v>100</v>
       </c>
       <c r="BF21" s="4">
-        <v>47.295031451438</v>
+        <v>47.295917796178003</v>
       </c>
       <c r="BG21" s="4">
-        <v>4.2021426702689997</v>
+        <v>4.2034424060850002</v>
       </c>
       <c r="BH21" s="4">
-        <v>8.3166849009000003</v>
+        <v>8.3192572774430005</v>
       </c>
       <c r="BI21" s="4">
-        <v>33.330984075406</v>
+        <v>33.324105296927002</v>
       </c>
       <c r="BJ21" s="4">
-        <v>1.0084924736559999</v>
+        <v>1.008804403519</v>
       </c>
       <c r="BK21" s="4">
-        <v>5.8466644283309996</v>
+        <v>5.8484728198490004</v>
       </c>
       <c r="BL21" s="4">
         <v>100</v>
       </c>
       <c r="BM21" s="4">
-        <v>44.706170498086003</v>
+        <v>44.767408049217003</v>
       </c>
       <c r="BN21" s="4">
-        <v>3.3900664771020002</v>
+        <v>3.3904727841589999</v>
       </c>
       <c r="BO21" s="4">
-        <v>30.831929912048</v>
+        <v>30.835625187874999</v>
       </c>
       <c r="BP21" s="4">
-        <v>19.343755437552002</v>
+        <v>19.278209189558002</v>
       </c>
       <c r="BQ21" s="4">
-        <v>1.728077675213</v>
+        <v>1.7282847891919999</v>
       </c>
       <c r="BR21" s="4">
         <v>100</v>
       </c>
       <c r="BS21" s="4">
-        <v>75.954462505758002</v>
+        <v>75.939559978530994</v>
       </c>
       <c r="BT21" s="4">
-        <v>6.9749168128469998</v>
+        <v>6.9792350139329997</v>
       </c>
       <c r="BU21" s="4">
-        <v>6.3679787661999998E-2</v>
+        <v>6.3719271150000006E-2</v>
       </c>
       <c r="BV21" s="4">
-        <v>15.817870333825001</v>
+        <v>15.827677915024999</v>
       </c>
       <c r="BW21" s="4">
-        <v>1.189070559908</v>
+        <v>1.1898078213609999</v>
       </c>
       <c r="BX21" s="4">
         <v>100</v>
       </c>
       <c r="BY21" s="4">
-        <v>74.099543618446006</v>
+        <v>74.074359465919002</v>
       </c>
       <c r="BZ21" s="4">
-        <v>10.139301525303001</v>
+        <v>10.149149337542999</v>
       </c>
       <c r="CA21" s="4">
         <v>0</v>
       </c>
       <c r="CB21" s="4">
-        <v>14.588491784393</v>
+        <v>14.602692946436999</v>
       </c>
       <c r="CC21" s="4">
-        <v>1.1726630718590001</v>
+        <v>1.1737982500999999</v>
       </c>
       <c r="CD21" s="4">
         <v>100</v>
       </c>
       <c r="CE21" s="4">
-        <v>-5.632796832385</v>
+        <v>-6.7909631067080003</v>
       </c>
       <c r="CF21" s="4">
-        <v>8.2264686443980004</v>
+        <v>8.3175299185440004</v>
       </c>
       <c r="CG21" s="4">
-        <v>9.2306244539889999</v>
+        <v>9.3328101195219997</v>
       </c>
       <c r="CH21" s="4">
-        <v>86.021991168073995</v>
+        <v>86.963070592980003</v>
       </c>
       <c r="CI21" s="4">
-        <v>2.1537125659240002</v>
+        <v>2.1775524756619999</v>
       </c>
       <c r="CJ21" s="4">
         <v>100</v>
       </c>
       <c r="CK21" s="4">
-        <v>33.094524598234003</v>
+        <v>30.554078758913001</v>
       </c>
       <c r="CL21" s="4">
-        <v>14.86086408705</v>
+        <v>15.435100530156999</v>
       </c>
       <c r="CM21" s="4">
-        <v>-14.948158211143999</v>
+        <v>-15.525780463127001</v>
       </c>
       <c r="CN21" s="4">
-        <v>63.911560866452</v>
+        <v>66.336329372584004</v>
       </c>
       <c r="CO21" s="4">
-        <v>3.081208659409</v>
+        <v>3.2002718014720002</v>
       </c>
       <c r="CP21" s="4">
         <v>100</v>
       </c>
       <c r="CQ21" s="4">
-        <v>60.585812827749002</v>
+        <v>60.623119253346999</v>
       </c>
       <c r="CR21" s="4">
-        <v>1.2171531360059999</v>
+        <v>1.2171419467469999</v>
       </c>
       <c r="CS21" s="4">
-        <v>6.9835628898040003</v>
+        <v>6.9834986900790001</v>
       </c>
       <c r="CT21" s="4">
-        <v>31.064959190568</v>
+        <v>31.027729519221001</v>
       </c>
       <c r="CU21" s="4">
-        <v>0.14851195587300001</v>
+        <v>0.148510590606</v>
       </c>
     </row>
-    <row r="22" spans="1:99" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
+    <row r="22" spans="1:99" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>2020</v>
       </c>
       <c r="B22" s="4">
-        <v>38412868.978</v>
+        <v>38496757.361000001</v>
       </c>
       <c r="C22" s="4">
-        <v>23426829.977000002</v>
+        <v>23500320.556000002</v>
       </c>
       <c r="D22" s="4">
-        <v>1554300.93</v>
+        <v>1556461.5519999999</v>
       </c>
       <c r="E22" s="4">
-        <v>2948853.6090000002</v>
+        <v>2944175.0929999999</v>
       </c>
       <c r="F22" s="4">
-        <v>10188783.971000001</v>
+        <v>10202268.738</v>
       </c>
       <c r="G22" s="4">
-        <v>294100.49099999998</v>
+        <v>293531.42200000002</v>
       </c>
       <c r="H22" s="4">
-        <v>23357377.84</v>
+        <v>23430377.458000001</v>
       </c>
       <c r="I22" s="4">
-        <v>10686626.801000001</v>
+        <v>10751397.007999999</v>
       </c>
       <c r="J22" s="4">
-        <v>1021751.659</v>
+        <v>1023660.128</v>
       </c>
       <c r="K22" s="4">
-        <v>2164678.5499999998</v>
+        <v>2170670.2009999999</v>
       </c>
       <c r="L22" s="4">
-        <v>7795064.5049999999</v>
+        <v>7797569.6090000002</v>
       </c>
       <c r="M22" s="4">
-        <v>215907.50599999999</v>
+        <v>215267.59099999999</v>
       </c>
       <c r="N22" s="4">
-        <v>1473348.8189999999</v>
+        <v>1471812.9210000001</v>
       </c>
       <c r="O22" s="4">
-        <v>6635079.8420000002</v>
+        <v>6641010.4759999998</v>
       </c>
       <c r="P22" s="4">
-        <v>2903607.05</v>
+        <v>2889874.8160000001</v>
       </c>
       <c r="Q22" s="4">
-        <v>226457.136</v>
+        <v>226641.16099999999</v>
       </c>
       <c r="R22" s="4">
-        <v>2128146.7859999998</v>
+        <v>2134339.5240000002</v>
       </c>
       <c r="S22" s="4">
-        <v>1264050.014</v>
+        <v>1277693.409</v>
       </c>
       <c r="T22" s="4">
-        <v>112818.856</v>
+        <v>112461.56600000001</v>
       </c>
       <c r="U22" s="4">
-        <v>10418228.706</v>
+        <v>10499905.642999999</v>
       </c>
       <c r="V22" s="4">
-        <v>7690511.9879999999</v>
+        <v>7770768.4720000001</v>
       </c>
       <c r="W22" s="4">
-        <v>773135.53899999999</v>
+        <v>774843.64399999997</v>
       </c>
       <c r="X22" s="4">
         <v>8115.8770000000004</v>
@@ -7190,435 +7190,631 @@
         <v>1843664.7709999999</v>
       </c>
       <c r="Z22" s="4">
-        <v>102800.531</v>
+        <v>102512.879</v>
       </c>
       <c r="AA22" s="4">
-        <v>6168170.5209999997</v>
+        <v>6248937.4850000003</v>
       </c>
       <c r="AB22" s="4">
-        <v>4297411.5489999996</v>
+        <v>4375701.8250000002</v>
       </c>
       <c r="AC22" s="4">
-        <v>724184.56</v>
+        <v>726353.93599999999</v>
       </c>
       <c r="AD22" s="4">
         <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <v>1094121.139</v>
+        <v>1094350.777</v>
       </c>
       <c r="AF22" s="4">
-        <v>52453.273000000001</v>
+        <v>52530.947</v>
       </c>
       <c r="AG22" s="4">
-        <v>19037164.614</v>
+        <v>18936384.118000001</v>
       </c>
       <c r="AH22" s="4">
-        <v>-2044047.882</v>
+        <v>-2120014.9350000001</v>
       </c>
       <c r="AI22" s="4">
-        <v>1745977.8629999999</v>
+        <v>1807185.889</v>
       </c>
       <c r="AJ22" s="4">
-        <v>1773658.037</v>
+        <v>1758600.1969999999</v>
       </c>
       <c r="AK22" s="4">
-        <v>17242007.335000001</v>
+        <v>17170966.899999999</v>
       </c>
       <c r="AL22" s="4">
-        <v>319569.261</v>
+        <v>319646.06699999998</v>
       </c>
       <c r="AM22" s="4">
-        <v>5969432.5750000002</v>
+        <v>5837231.3329999996</v>
       </c>
       <c r="AN22" s="4">
-        <v>1349052.557</v>
+        <v>1275051.7120000001</v>
       </c>
       <c r="AO22" s="4">
-        <v>909928.06299999997</v>
+        <v>970674.81799999997</v>
       </c>
       <c r="AP22" s="4">
-        <v>-1152997.6629999999</v>
+        <v>-1163376.987</v>
       </c>
       <c r="AQ22" s="4">
-        <v>4765912.608</v>
+        <v>4656985.4119999995</v>
       </c>
       <c r="AR22" s="4">
-        <v>97537.01</v>
+        <v>97896.377999999997</v>
       </c>
       <c r="AS22" s="4">
-        <v>4419688.9989999998</v>
+        <v>4425706.0460000001</v>
       </c>
       <c r="AT22" s="4">
-        <v>2629373.9240000001</v>
+        <v>2627926.5780000002</v>
       </c>
       <c r="AU22" s="4">
-        <v>69766.548999999999</v>
+        <v>70440.179999999993</v>
       </c>
       <c r="AV22" s="4">
-        <v>349454.47399999999</v>
+        <v>357368.467</v>
       </c>
       <c r="AW22" s="4">
-        <v>1365221.047</v>
+        <v>1364074.6769999999</v>
       </c>
       <c r="AX22" s="4">
-        <v>5873.0050000000001</v>
+        <v>5896.1440000000002</v>
       </c>
       <c r="AY22" s="4">
         <v>100</v>
       </c>
       <c r="AZ22" s="4">
-        <v>60.986931203750999</v>
+        <v>61.044935124348001</v>
       </c>
       <c r="BA22" s="4">
-        <v>4.0463026359479999</v>
+        <v>4.0430978053670001</v>
       </c>
       <c r="BB22" s="4">
-        <v>7.6767335725140002</v>
+        <v>7.6478521694469999</v>
       </c>
       <c r="BC22" s="4">
-        <v>26.524402477814</v>
+        <v>26.501631403209</v>
       </c>
       <c r="BD22" s="4">
-        <v>0.76563010997299996</v>
+        <v>0.76248349762900003</v>
       </c>
       <c r="BE22" s="4">
-        <v>93.692148026664</v>
+        <v>100</v>
       </c>
       <c r="BF22" s="4">
-        <v>45.752681975709002</v>
+        <v>45.886571939664002</v>
       </c>
       <c r="BG22" s="4">
-        <v>4.374427925939</v>
+        <v>4.3689442469930002</v>
       </c>
       <c r="BH22" s="4">
-        <v>9.2676436748519997</v>
+        <v>9.2643415791789998</v>
       </c>
       <c r="BI22" s="4">
-        <v>33.373029106250002</v>
+        <v>33.279743883671998</v>
       </c>
       <c r="BJ22" s="4">
-        <v>0.92436534391400005</v>
+        <v>0.91875425987399995</v>
       </c>
       <c r="BK22" s="4">
-        <v>6.3078519733359997</v>
+        <v>6.2816440906180002</v>
       </c>
       <c r="BL22" s="4">
         <v>100</v>
       </c>
       <c r="BM22" s="4">
-        <v>43.761448530282998</v>
+        <v>43.515588876778999</v>
       </c>
       <c r="BN22" s="4">
-        <v>3.413028047779</v>
+        <v>3.4127511441079998</v>
       </c>
       <c r="BO22" s="4">
-        <v>32.074169967464002</v>
+        <v>32.138776647218002</v>
       </c>
       <c r="BP22" s="4">
-        <v>19.051014367583001</v>
+        <v>19.239442756753</v>
       </c>
       <c r="BQ22" s="4">
-        <v>1.7003390868920001</v>
+        <v>1.6934405751420001</v>
       </c>
       <c r="BR22" s="4">
         <v>100</v>
       </c>
       <c r="BS22" s="4">
-        <v>73.81784567247</v>
+        <v>74.007983844888997</v>
       </c>
       <c r="BT22" s="4">
-        <v>7.4209883543329997</v>
+        <v>7.3795295914550003</v>
       </c>
       <c r="BU22" s="4">
-        <v>7.7900737533999995E-2</v>
+        <v>7.7294761266999995E-2</v>
       </c>
       <c r="BV22" s="4">
-        <v>17.696528104995998</v>
+        <v>17.558869895455999</v>
       </c>
       <c r="BW22" s="4">
-        <v>0.98673713066799995</v>
+        <v>0.97632190693400001</v>
       </c>
       <c r="BX22" s="4">
         <v>100</v>
       </c>
       <c r="BY22" s="4">
-        <v>69.670764359855994</v>
+        <v>70.023133300717006</v>
       </c>
       <c r="BZ22" s="4">
-        <v>11.740670228465</v>
+        <v>11.623639022531</v>
       </c>
       <c r="CA22" s="4">
         <v>0</v>
       </c>
       <c r="CB22" s="4">
-        <v>17.738179177683001</v>
+        <v>17.512589614265</v>
       </c>
       <c r="CC22" s="4">
-        <v>0.850386233996</v>
+        <v>0.84063806248799999</v>
       </c>
       <c r="CD22" s="4">
         <v>100</v>
       </c>
       <c r="CE22" s="4">
-        <v>-10.737144545657999</v>
+        <v>-11.195458022975</v>
       </c>
       <c r="CF22" s="4">
-        <v>9.1714175845069992</v>
+        <v>9.5434581266350005</v>
       </c>
       <c r="CG22" s="4">
-        <v>9.3168183023199997</v>
+        <v>9.2868848986240007</v>
       </c>
       <c r="CH22" s="4">
-        <v>90.570248693023004</v>
+        <v>90.677115509491998</v>
       </c>
       <c r="CI22" s="4">
-        <v>1.6786599658070001</v>
+        <v>1.6879994882239999</v>
       </c>
       <c r="CJ22" s="4">
         <v>100</v>
       </c>
       <c r="CK22" s="4">
-        <v>22.599343238246998</v>
+        <v>21.843432943829001</v>
       </c>
       <c r="CL22" s="4">
-        <v>15.243124896172001</v>
+        <v>16.629027746637998</v>
       </c>
       <c r="CM22" s="4">
-        <v>-19.315029502615999</v>
+        <v>-19.930287505020001</v>
       </c>
       <c r="CN22" s="4">
-        <v>79.838620306387</v>
+        <v>79.780723879698996</v>
       </c>
       <c r="CO22" s="4">
-        <v>1.6339410618100001</v>
+        <v>1.6771029348549999</v>
       </c>
       <c r="CP22" s="4">
         <v>100</v>
       </c>
       <c r="CQ22" s="4">
-        <v>59.492283837050998</v>
+        <v>59.378696883295</v>
       </c>
       <c r="CR22" s="4">
-        <v>1.5785397799659999</v>
+        <v>1.591614519081</v>
       </c>
       <c r="CS22" s="4">
-        <v>7.906766156602</v>
+        <v>8.0748351401009995</v>
       </c>
       <c r="CT22" s="4">
-        <v>30.889527460164999</v>
+        <v>30.821628522592</v>
       </c>
       <c r="CU22" s="4">
-        <v>0.13288276621600001</v>
+        <v>0.13322493493099999</v>
       </c>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
-      <c r="BL23" s="6"/>
-      <c r="BM23" s="6"/>
-      <c r="BN23" s="6"/>
-      <c r="BO23" s="6"/>
-      <c r="BP23" s="6"/>
-      <c r="BQ23" s="6"/>
-      <c r="BR23" s="6"/>
-      <c r="BS23" s="6"/>
-      <c r="BT23" s="6"/>
-      <c r="BU23" s="6"/>
-      <c r="BV23" s="6"/>
-      <c r="BW23" s="6"/>
-      <c r="BX23" s="6"/>
-      <c r="BY23" s="6"/>
-      <c r="BZ23" s="6"/>
-      <c r="CA23" s="6"/>
-      <c r="CB23" s="6"/>
-      <c r="CC23" s="6"/>
-      <c r="CD23" s="6"/>
-      <c r="CE23" s="6"/>
-      <c r="CF23" s="6"/>
-      <c r="CG23" s="6"/>
-      <c r="CH23" s="6"/>
-      <c r="CI23" s="6"/>
-      <c r="CJ23" s="6"/>
-      <c r="CK23" s="6"/>
-      <c r="CL23" s="6"/>
-      <c r="CM23" s="6"/>
-      <c r="CN23" s="6"/>
-      <c r="CO23" s="6"/>
-      <c r="CP23" s="6"/>
-      <c r="CQ23" s="6"/>
-      <c r="CR23" s="6"/>
-      <c r="CS23" s="6"/>
-      <c r="CT23" s="6"/>
-      <c r="CU23" s="6"/>
+    <row r="23" spans="1:99" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43191564.074000001</v>
+      </c>
+      <c r="C23" s="4">
+        <v>25947273.202</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2248282.7510000002</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3056826.2519999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11627778.221000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>311403.64799999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>25803508.116999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>11501278.051999999</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1370856.6850000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2258647.09</v>
+      </c>
+      <c r="L23" s="4">
+        <v>8871857.9550000001</v>
+      </c>
+      <c r="M23" s="4">
+        <v>222799.802</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1578068.5330000001</v>
+      </c>
+      <c r="O23" s="4">
+        <v>7214544.0470000003</v>
+      </c>
+      <c r="P23" s="4">
+        <v>3156246.6740000001</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>241644.66099999999</v>
+      </c>
+      <c r="R23" s="4">
+        <v>2222857.0109999999</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1474763.888</v>
+      </c>
+      <c r="T23" s="4">
+        <v>119031.81299999999</v>
+      </c>
+      <c r="U23" s="4">
+        <v>11339875.926000001</v>
+      </c>
+      <c r="V23" s="4">
+        <v>8239783.9890000001</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1105877.6610000001</v>
+      </c>
+      <c r="X23" s="4">
+        <v>8293.6949999999997</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1882470.838</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>103449.743</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>6747897.2929999996</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>4597008.1569999997</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1054067.7320000001</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>1045705.839</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>51115.565000000002</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>21164856.941</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>-2730669.2489999998</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>2441586.3169999998</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>1978540.6980000001</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>19127208.324000001</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>348190.85100000002</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>6266374.932</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>912106.58299999998</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>1750327.0319999999</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>-1057993.1040000001</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>4547513.6789999995</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>114420.742</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>5211013.8660000004</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>3247987.179</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>71455.77</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>363208.95</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>1525123.35</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>3238.6170000000002</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>100</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>60.074863594994</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>5.2053747049960002</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>7.0773687351600003</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>26.921410396433</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>0.72098256841700004</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>100</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>44.572536415785997</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>5.3126756206329997</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>8.7532558741960003</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>34.382371244920002</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>0.863447717999</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>6.1157131264659998</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>100</v>
+      </c>
+      <c r="BM23" s="4">
+        <v>43.748387333118998</v>
+      </c>
+      <c r="BN23" s="4">
+        <v>3.3494100171230001</v>
+      </c>
+      <c r="BO23" s="4">
+        <v>30.810776072873999</v>
+      </c>
+      <c r="BP23" s="4">
+        <v>20.441539734077001</v>
+      </c>
+      <c r="BQ23" s="4">
+        <v>1.6498868428069999</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>100</v>
+      </c>
+      <c r="BS23" s="4">
+        <v>72.662029485771001</v>
+      </c>
+      <c r="BT23" s="4">
+        <v>9.7521142931070006</v>
+      </c>
+      <c r="BU23" s="4">
+        <v>7.3137440427999995E-2</v>
+      </c>
+      <c r="BV23" s="4">
+        <v>16.600453570077001</v>
+      </c>
+      <c r="BW23" s="4">
+        <v>0.91226521061700006</v>
+      </c>
+      <c r="BX23" s="4">
+        <v>100</v>
+      </c>
+      <c r="BY23" s="4">
+        <v>68.125046327671996</v>
+      </c>
+      <c r="BZ23" s="4">
+        <v>15.620684284769</v>
+      </c>
+      <c r="CA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="4">
+        <v>15.496765786355001</v>
+      </c>
+      <c r="CC23" s="4">
+        <v>0.75750360120399995</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>100</v>
+      </c>
+      <c r="CE23" s="4">
+        <v>-12.901902699423999</v>
+      </c>
+      <c r="CF23" s="4">
+        <v>11.536039784281</v>
+      </c>
+      <c r="CG23" s="4">
+        <v>9.3482356319040001</v>
+      </c>
+      <c r="CH23" s="4">
+        <v>90.372490479475999</v>
+      </c>
+      <c r="CI23" s="4">
+        <v>1.645136803762</v>
+      </c>
+      <c r="CJ23" s="4">
+        <v>100</v>
+      </c>
+      <c r="CK23" s="4">
+        <v>14.555569893244</v>
+      </c>
+      <c r="CL23" s="4">
+        <v>27.932050842692998</v>
+      </c>
+      <c r="CM23" s="4">
+        <v>-16.883654672452</v>
+      </c>
+      <c r="CN23" s="4">
+        <v>72.570086028169001</v>
+      </c>
+      <c r="CO23" s="4">
+        <v>1.825947908346</v>
+      </c>
+      <c r="CP23" s="4">
+        <v>100</v>
+      </c>
+      <c r="CQ23" s="4">
+        <v>62.329275310356998</v>
+      </c>
+      <c r="CR23" s="4">
+        <v>1.3712450559039999</v>
+      </c>
+      <c r="CS23" s="4">
+        <v>6.970024631287</v>
+      </c>
+      <c r="CT23" s="4">
+        <v>29.267305542033998</v>
+      </c>
+      <c r="CU23" s="4">
+        <v>6.2149460417000001E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-      <c r="BV24" s="1"/>
-      <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
-      <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
-      <c r="CI24" s="1"/>
-      <c r="CJ24" s="1"/>
-      <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
-      <c r="CU24" s="1"/>
+    <row r="24" spans="1:99" x14ac:dyDescent="0.45">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
+      <c r="BL24" s="6"/>
+      <c r="BM24" s="6"/>
+      <c r="BN24" s="6"/>
+      <c r="BO24" s="6"/>
+      <c r="BP24" s="6"/>
+      <c r="BQ24" s="6"/>
+      <c r="BR24" s="6"/>
+      <c r="BS24" s="6"/>
+      <c r="BT24" s="6"/>
+      <c r="BU24" s="6"/>
+      <c r="BV24" s="6"/>
+      <c r="BW24" s="6"/>
+      <c r="BX24" s="6"/>
+      <c r="BY24" s="6"/>
+      <c r="BZ24" s="6"/>
+      <c r="CA24" s="6"/>
+      <c r="CB24" s="6"/>
+      <c r="CC24" s="6"/>
+      <c r="CD24" s="6"/>
+      <c r="CE24" s="6"/>
+      <c r="CF24" s="6"/>
+      <c r="CG24" s="6"/>
+      <c r="CH24" s="6"/>
+      <c r="CI24" s="6"/>
+      <c r="CJ24" s="6"/>
+      <c r="CK24" s="6"/>
+      <c r="CL24" s="6"/>
+      <c r="CM24" s="6"/>
+      <c r="CN24" s="6"/>
+      <c r="CO24" s="6"/>
+      <c r="CP24" s="6"/>
+      <c r="CQ24" s="6"/>
+      <c r="CR24" s="6"/>
+      <c r="CS24" s="6"/>
+      <c r="CT24" s="6"/>
+      <c r="CU24" s="6"/>
     </row>
     <row r="25" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7721,7 +7917,7 @@
     </row>
     <row r="26" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7822,27 +8018,130 @@
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
     </row>
-    <row r="27" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
     </row>
-    <row r="28" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:99" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B29" s="6"/>
     </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
+    <row r="30" spans="1:99" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:CU1"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A23:CU23"/>
     <mergeCell ref="A24:CU24"/>
     <mergeCell ref="A25:CU25"/>
     <mergeCell ref="A26:CU26"/>
+    <mergeCell ref="A27:CU27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
